--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WST\ASSIGNMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B51F746-7E05-455D-8E44-0C8628478145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0FFE52-DC34-4AEB-AC5E-F45BC304454D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A375DC43-966B-4205-B1BE-C393770C7A34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>summary about internet</t>
   </si>
@@ -82,13 +82,25 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>to create remote repo on github and share it here</t>
+  </si>
+  <si>
+    <t>write summary for css laibary</t>
+  </si>
+  <si>
+    <t>connect bootstrap via CDN and offline files</t>
+  </si>
+  <si>
+    <t>pratice bg, color, text &amp; font utilities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +114,25 @@
       <name val="Bookman Old Style"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -153,15 +177,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,156 +511,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F324EBA3-0D8A-4AEF-BA71-EB0C3EBDCB89}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WST\ASSIGNMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0FFE52-DC34-4AEB-AC5E-F45BC304454D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357B9A45-2B21-44B0-97C5-333C17C128D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A375DC43-966B-4205-B1BE-C393770C7A34}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{A375DC43-966B-4205-B1BE-C393770C7A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>summary about internet</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>pratice bg, color, text &amp; font utilities</t>
+  </si>
+  <si>
+    <t>pratice position and display bootstrap utils</t>
+  </si>
+  <si>
+    <t>bootstrap self learn | float, interaction, shadow, link</t>
+  </si>
+  <si>
+    <t>repeat sizing and flex</t>
+  </si>
+  <si>
+    <t>pratice break points and bootstrap grid create all it's variations</t>
+  </si>
+  <si>
+    <t>recreate margin|padding &amp; border</t>
+  </si>
+  <si>
+    <t>create all variation for bootstrap border</t>
   </si>
 </sst>
 </file>
@@ -511,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F324EBA3-0D8A-4AEF-BA71-EB0C3EBDCB89}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -679,6 +697,9 @@
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -693,6 +714,54 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WST\ASSIGNMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357B9A45-2B21-44B0-97C5-333C17C128D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960CC893-CF1C-4EAB-91F9-EA66E60F3641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{A375DC43-966B-4205-B1BE-C393770C7A34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A375DC43-966B-4205-B1BE-C393770C7A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>summary about internet</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>create all variation for bootstrap border</t>
+  </si>
+  <si>
+    <t>create layout using bootstrap grid</t>
+  </si>
+  <si>
+    <t>create layout using flex</t>
+  </si>
+  <si>
+    <t>repeat content | and try all variation of tables and form</t>
   </si>
 </sst>
 </file>
@@ -209,10 +218,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,15 +538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F324EBA3-0D8A-4AEF-BA71-EB0C3EBDCB89}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" style="5" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -686,34 +695,34 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -721,7 +730,7 @@
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -729,7 +738,7 @@
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -737,7 +746,7 @@
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -745,7 +754,7 @@
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -753,7 +762,7 @@
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -761,8 +770,37 @@
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>18</v>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WST\ASSIGNMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960CC893-CF1C-4EAB-91F9-EA66E60F3641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A2249E-9399-415D-A178-CBFD94837349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A375DC43-966B-4205-B1BE-C393770C7A34}"/>
   </bookViews>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F324EBA3-0D8A-4AEF-BA71-EB0C3EBDCB89}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -798,11 +798,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WST\ASSIGNMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A2249E-9399-415D-A178-CBFD94837349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ED54B0-2F8C-473C-B369-80C70D06005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A375DC43-966B-4205-B1BE-C393770C7A34}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{A375DC43-966B-4205-B1BE-C393770C7A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>summary about internet</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>repeat content | and try all variation of tables and form</t>
+  </si>
+  <si>
+    <t>re-create navbar, offcanvas, collapse</t>
+  </si>
+  <si>
+    <t>variation of navbar, offcanvas &amp; collapse</t>
+  </si>
+  <si>
+    <t>re-create | alert , badge, dropdown, card</t>
+  </si>
+  <si>
+    <t>self learn - progress, placeholder, sipnners</t>
   </si>
 </sst>
 </file>
@@ -538,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F324EBA3-0D8A-4AEF-BA71-EB0C3EBDCB89}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -798,6 +810,38 @@
         <v>18</v>
       </c>
     </row>
+    <row r="32" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WST\ASSIGNMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ED54B0-2F8C-473C-B369-80C70D06005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3394458A-5393-49D8-9089-9A71558A151A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{A375DC43-966B-4205-B1BE-C393770C7A34}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{A375DC43-966B-4205-B1BE-C393770C7A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>summary about internet</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>self learn - progress, placeholder, sipnners</t>
+  </si>
+  <si>
+    <t>navbar with dropdown and mobile responsive offcanvas menu</t>
+  </si>
+  <si>
+    <t>recreate carousel accordion modal</t>
   </si>
 </sst>
 </file>
@@ -550,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F324EBA3-0D8A-4AEF-BA71-EB0C3EBDCB89}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -842,6 +848,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="36" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WST\ASSIGNMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3394458A-5393-49D8-9089-9A71558A151A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64558B43-0C9C-411A-85A2-11B458F26CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{A375DC43-966B-4205-B1BE-C393770C7A34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A375DC43-966B-4205-B1BE-C393770C7A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>summary about internet</t>
   </si>
@@ -139,6 +139,51 @@
   </si>
   <si>
     <t>recreate carousel accordion modal</t>
+  </si>
+  <si>
+    <t>recreate portfolio class</t>
+  </si>
+  <si>
+    <t>complete class portfolio</t>
+  </si>
+  <si>
+    <t>js intro summary</t>
+  </si>
+  <si>
+    <t>js syntax repeats</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>wap in js even odd &amp; positive and negative</t>
+  </si>
+  <si>
+    <t>js opratorations assignments and arithmatic</t>
+  </si>
+  <si>
+    <t>js difference between expresions and statements</t>
+  </si>
+  <si>
+    <t>recreate switch case</t>
+  </si>
+  <si>
+    <t>wap to find to check leap year</t>
+  </si>
+  <si>
+    <t>repeat while loop</t>
+  </si>
+  <si>
+    <t>range to leap year</t>
+  </si>
+  <si>
+    <t>bug fix for do while input</t>
+  </si>
+  <si>
+    <t>repeat all example of while in for</t>
+  </si>
+  <si>
+    <t>palindrome using do while</t>
   </si>
 </sst>
 </file>
@@ -556,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F324EBA3-0D8A-4AEF-BA71-EB0C3EBDCB89}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -864,6 +909,117 @@
         <v>18</v>
       </c>
     </row>
+    <row r="38" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WST\ASSIGNMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64558B43-0C9C-411A-85A2-11B458F26CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDD5704-70A6-4C56-9757-1833B1F2621C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A375DC43-966B-4205-B1BE-C393770C7A34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>summary about internet</t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>palindrome using do while</t>
+  </si>
+  <si>
+    <t>re create all program for a function</t>
+  </si>
+  <si>
+    <t>create password checking regex</t>
+  </si>
+  <si>
+    <t>donez</t>
   </si>
 </sst>
 </file>
@@ -601,9 +610,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F324EBA3-0D8A-4AEF-BA71-EB0C3EBDCB89}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -1006,6 +1015,9 @@
       <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="B50" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="51" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -1017,6 +1029,19 @@
         <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WST\ASSIGNMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDD5704-70A6-4C56-9757-1833B1F2621C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCD763E-F143-4472-9E5B-E3EE58A281C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A375DC43-966B-4205-B1BE-C393770C7A34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>summary about internet</t>
   </si>
@@ -190,16 +190,13 @@
   </si>
   <si>
     <t>create password checking regex</t>
-  </si>
-  <si>
-    <t>donez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +215,17 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Droid Sans Mono"/>
     </font>
   </fonts>
   <fills count="3">
@@ -278,23 +286,23 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,440 +618,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F324EBA3-0D8A-4AEF-BA71-EB0C3EBDCB89}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="64.5703125" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="B33" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="B39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="B40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="B41" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="B42" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="B43" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="B44" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="B45" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="B46" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="B47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="B48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="B49" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="B50" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="B51" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="B52" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="B53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B54" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A56" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WST\ASSIGNMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCD763E-F143-4472-9E5B-E3EE58A281C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC751FC-FE3C-42F4-8923-482805D7FBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A375DC43-966B-4205-B1BE-C393770C7A34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
   <si>
     <t>summary about internet</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>create password checking regex</t>
+  </si>
+  <si>
+    <t>repeat algo</t>
+  </si>
+  <si>
+    <t>repeat try-Catch, promises &amp; async program</t>
   </si>
 </sst>
 </file>
@@ -621,7 +627,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1"/>
@@ -1060,10 +1066,14 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A55" s="4"/>
+      <c r="A55" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="56" spans="1:2" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A56" s="4"/>
+      <c r="A56" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
